--- a/biology/Zoologie/Bothrocophias_microphthalmus/Bothrocophias_microphthalmus.xlsx
+++ b/biology/Zoologie/Bothrocophias_microphthalmus/Bothrocophias_microphthalmus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bothrocophias microphthalmus est une espèce de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bothrocophias microphthalmus est une espèce de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Équateur, dans l'Ouest de la Colombie, au Pérou et dans le Nord-Ouest de la Bolivie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Équateur, dans l'Ouest de la Colombie, au Pérou et dans le Nord-Ouest de la Bolivie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1875 : Report on the Reptiles brought by Professor James Orton from the middle and upper Amazon and western Peru. Journal of the Academy of Natural Sciences of Philadelphia, sér. 2, vol. 8, p. 159-183 (texte intégral).</t>
         </is>
